--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1866077.24944202</v>
+        <v>-1873087.978558015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222.321320629477</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -671,7 +671,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>195.7440448237903</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +741,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>18.87888333504676</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -798,13 +798,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>171.4264087264615</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,10 +832,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>161.6061209658792</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>41.30043339639767</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>17.53084036648166</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>275.3126452671301</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1032,13 +1032,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>192.3961022263713</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>128.080795613214</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,7 +1054,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>105.1296133105897</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.046105082955</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>78.10948513416604</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.5674273908996</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.6817971979805</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.55305743456947</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>26.32608977062861</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>166.5430216364778</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>63.83940654028818</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>34.79053332413844</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>265.9168860779893</v>
       </c>
       <c r="C14" t="n">
-        <v>182.2688672779107</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>60.35747192395881</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>132.2152876840769</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380454</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1180.432721796464</v>
+        <v>1214.408393766698</v>
       </c>
       <c r="C2" t="n">
-        <v>1180.432721796464</v>
+        <v>989.8414032318723</v>
       </c>
       <c r="D2" t="n">
-        <v>794.9915930131317</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E2" t="n">
-        <v>392.4080681296762</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>379.554033700058</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475491</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1386.555876713895</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713895</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606224</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172344</v>
+        <v>1614.903139478095</v>
       </c>
       <c r="V2" t="n">
-        <v>1576.923430875863</v>
+        <v>1614.903139478095</v>
       </c>
       <c r="W2" t="n">
-        <v>1576.923430875863</v>
+        <v>1614.903139478095</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.923430875863</v>
+        <v>1614.903139478095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1180.432721796464</v>
+        <v>1614.903139478095</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.7726751562662</v>
+        <v>735.5070029058111</v>
       </c>
       <c r="C3" t="n">
-        <v>562.1184447163585</v>
+        <v>584.8527724659033</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>454.7638050873836</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>318.3173141982713</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="M3" t="n">
-        <v>901.4935904670734</v>
+        <v>555.105925366027</v>
       </c>
       <c r="N3" t="n">
-        <v>1439.752375477166</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O3" t="n">
-        <v>1956.272658068146</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1233.190304171709</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1043.88322652172</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>864.5690095972276</v>
+        <v>887.3033373467724</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.1130112616399</v>
+        <v>1788.02284242336</v>
       </c>
       <c r="C4" t="n">
-        <v>680.1130112616399</v>
+        <v>1788.02284242336</v>
       </c>
       <c r="D4" t="n">
-        <v>680.1130112616399</v>
+        <v>1632.389729325874</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208424</v>
+        <v>1632.389729325874</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338154</v>
+        <v>1475.063794538847</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332609</v>
+        <v>1306.809740638293</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475491</v>
+        <v>1306.809740638293</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>1173.715315275371</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>1173.715315275371</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385313</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597377</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628586</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670294</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446872</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.2613484495</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.2613484495</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.2613484495</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.2613484495</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1788.02284242336</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>1788.02284242336</v>
       </c>
       <c r="X4" t="n">
-        <v>903.2250724449966</v>
+        <v>1788.02284242336</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.1130112616399</v>
+        <v>1788.02284242336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1414.473495167765</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.473495167765</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.473495167765</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222167</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323089</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N5" t="n">
-        <v>1468.548084069771</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>2157.075050175643</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U5" t="n">
-        <v>2157.075050175643</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V5" t="n">
-        <v>1814.968240879162</v>
+        <v>1630.555201680065</v>
       </c>
       <c r="W5" t="n">
-        <v>1814.968240879162</v>
+        <v>1259.556166648352</v>
       </c>
       <c r="X5" t="n">
-        <v>1814.968240879162</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="Y5" t="n">
-        <v>1814.968240879162</v>
+        <v>870.1035615814089</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>616.1253226078582</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>465.4710921679503</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>402.0727246834691</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>885.6388105817823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591875</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.799157936654</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1787.736014615296</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>947.2358739733122</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>767.9216570488195</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.8382572105385</v>
+        <v>147.6947753528937</v>
       </c>
       <c r="C7" t="n">
-        <v>152.6331392765277</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="D7" t="n">
-        <v>152.6331392765277</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="E7" t="n">
-        <v>152.6331392765277</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>332.902794044195</v>
       </c>
       <c r="X7" t="n">
-        <v>508.0462759018397</v>
+        <v>332.902794044195</v>
       </c>
       <c r="Y7" t="n">
-        <v>508.0462759018397</v>
+        <v>332.902794044195</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1170.713242184647</v>
+        <v>1270.545665580632</v>
       </c>
       <c r="C8" t="n">
-        <v>1170.713242184647</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.713242184647</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1572.076674393824</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X8" t="n">
-        <v>1567.203951264046</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1170.713242184647</v>
+        <v>1349.444135413123</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.492043226187</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9966390740605</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="C10" t="n">
-        <v>202.7915211400496</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="D10" t="n">
-        <v>202.7915211400496</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="E10" t="n">
-        <v>202.7915211400496</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X10" t="n">
-        <v>429.2408786679802</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.2408786679802</v>
+        <v>679.1489636046944</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.987110988345</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.607884637469</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1105.963031000331</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>775.1757812630692</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>430.0776179392409</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>88.71113757343736</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>88.71113757343736</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2712.036345407502</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X11" t="n">
-        <v>2394.380015486752</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>2069.685581553547</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.4198987343945</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="C13" t="n">
-        <v>363.0110559465776</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="D13" t="n">
-        <v>363.0110559465776</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="E13" t="n">
-        <v>279.2485189519739</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="F13" t="n">
-        <v>193.7188593111407</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G13" t="n">
-        <v>97.26108055678063</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
-        <v>97.26108055678063</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922021</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310116</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.965602310116</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>888.4314753874877</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>726.1474283166647</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.8316422795019</v>
+        <v>368.0415815981108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.666683476873</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550884</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.02644983126</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2622.79717090105</v>
       </c>
       <c r="X14" t="n">
-        <v>1972.365154042076</v>
+        <v>2305.140840980301</v>
       </c>
       <c r="Y14" t="n">
-        <v>1972.365154042076</v>
+        <v>1980.446407047096</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327.8691030939128</v>
+        <v>463.013579815159</v>
       </c>
       <c r="C16" t="n">
-        <v>327.8691030939128</v>
+        <v>364.6047370273423</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939128</v>
+        <v>303.6375936698081</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F16" t="n">
-        <v>158.576906458476</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310116</v>
+        <v>988.1475398457732</v>
       </c>
       <c r="V16" t="n">
-        <v>966.4148066696346</v>
+        <v>988.1475398457732</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8806797470061</v>
+        <v>776.6134129231447</v>
       </c>
       <c r="X16" t="n">
-        <v>592.5966326761829</v>
+        <v>614.3293658523216</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.2808466390202</v>
+        <v>463.013579815159</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>810.1055852346353</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>1293.671671132949</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M18" t="n">
-        <v>1293.671671132949</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,10 +5792,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>658.8001958221562</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1314.578167032715</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1831.098449623696</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6254,10 +6254,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225752</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904125</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,13 +6491,13 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
         <v>2784.073622420326</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1020.875654636458</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1676.653625847017</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>621.353005291498</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010027</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781678</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.75857341914</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.798174311468</v>
+        <v>2621.41948669482</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.25875917006</v>
+        <v>3081.259099401324</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067493</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076195</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729538</v>
+        <v>611.4615154993336</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104163</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,13 +7105,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7263,13 +7263,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,19 +7336,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>645.4397683382824</v>
+        <v>193.5145772035935</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>455.5410760561059</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>307.8008513542633</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>203.324014133308</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5151842882426</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>337.538433382815</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837484</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413543</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O8" t="n">
-        <v>412.734320667415</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>593.8693786663695</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8769,10 +8769,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9009,16 +9009,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,13 +9243,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>112.3087888732274</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>405.2562148204912</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,7 +9954,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>263.0728605086213</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,13 +9963,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,13 +10188,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10203,13 +10203,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>168.5060516210919</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10446,7 +10446,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.5494662449327</v>
+        <v>210.5494662449332</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
-        <v>742.9781195708306</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,10 +11388,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.54934357309926</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>129.6677106501857</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.08550508436942</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.8946353904225</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>59.49459978156172</v>
       </c>
       <c r="C14" t="n">
-        <v>135.896566809456</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>22.64099764781967</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>60.02595164857516</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933569</v>
       </c>
       <c r="C2" t="n">
         <v>18033.21780933568</v>
@@ -26326,31 +26326,31 @@
         <v>15935.90234244006</v>
       </c>
       <c r="G2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933566</v>
       </c>
       <c r="H2" t="n">
         <v>18033.21780933567</v>
       </c>
       <c r="I2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="J2" t="n">
-        <v>18033.21780933563</v>
+        <v>18033.21780933564</v>
       </c>
       <c r="K2" t="n">
         <v>18033.21780933565</v>
       </c>
       <c r="L2" t="n">
+        <v>18033.2178093357</v>
+      </c>
+      <c r="M2" t="n">
         <v>18033.21780933567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18033.21780933568</v>
       </c>
       <c r="N2" t="n">
         <v>18033.21780933567</v>
       </c>
       <c r="O2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="P2" t="n">
         <v>18033.21780933568</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.325536682</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797027</v>
+        <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398062.1348468443</v>
+        <v>-394913.7842600703</v>
       </c>
       <c r="C6" t="n">
-        <v>-215857.1865549886</v>
+        <v>-221055.1272260151</v>
       </c>
       <c r="D6" t="n">
-        <v>-220720.4688488639</v>
+        <v>-228456.7580722552</v>
       </c>
       <c r="E6" t="n">
-        <v>-223457.1743551825</v>
+        <v>-223666.905901872</v>
       </c>
       <c r="F6" t="n">
-        <v>-111334.6128811379</v>
+        <v>-111544.3444278275</v>
       </c>
       <c r="G6" t="n">
-        <v>-209405.2890581855</v>
+        <v>-209405.2890581857</v>
       </c>
       <c r="H6" t="n">
         <v>-161979.9635215036</v>
@@ -26543,22 +26543,22 @@
         <v>-161979.9635215037</v>
       </c>
       <c r="J6" t="n">
-        <v>-375021.881118789</v>
+        <v>-368505.595964216</v>
       </c>
       <c r="K6" t="n">
-        <v>-168219.7319242867</v>
+        <v>-168219.7319242866</v>
       </c>
       <c r="L6" t="n">
-        <v>-223402.3208589078</v>
+        <v>-227451.15806938</v>
       </c>
       <c r="M6" t="n">
-        <v>-204180.7929811267</v>
+        <v>-205232.4879923148</v>
       </c>
       <c r="N6" t="n">
         <v>-161979.9635215036</v>
       </c>
       <c r="O6" t="n">
-        <v>-189747.6575642748</v>
+        <v>-189747.6575642749</v>
       </c>
       <c r="P6" t="n">
         <v>-161979.9635215036</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551333</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>166.9224258526216</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>213.2870831330866</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>104.3086047206528</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>56.38966468158452</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>101.7134307615048</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>190.4390855984491</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.7347560496958</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>63.37309593638668</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.91849938627237</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>59.33321126027445</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>63.37345344408098</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>47.70657035620175</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>318.3803131201169</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>28.99026224372125</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.6741413064078</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>187.3278831369536</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.63600263452949</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,19 +28980,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L25" t="n">
-        <v>5.63600263452912</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.2722376590126</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431641</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431749</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
         <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M29" t="n">
-        <v>30.27223765901272</v>
-      </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738832978</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683160062</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045038</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031456</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,22 +30639,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668824</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>5.636002634527898</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32470,7 +32470,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>495.7147167405552</v>
+        <v>43.78952560586624</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>370.1689632019392</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>220.7174865349486</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>54.2055227955239</v>
       </c>
       <c r="O5" t="n">
-        <v>174.9513468641462</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>247.9414980494816</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246545</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O8" t="n">
-        <v>263.1704832433186</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>582.1523102088538</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>501.1818197774805</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35422,13 +35422,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>22.711853539894</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716083</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>318.1728500011766</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039237</v>
+        <v>619.7932383009073</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698313</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>173.475925175288</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,13 +36683,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963375</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36923,13 +36923,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>75.81849273220298</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201094</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773869</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.5613130890187</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272604</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>80.25061856046705</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
-        <v>657.606006716664</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529174</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565479</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,10 +38108,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
